--- a/data/pravno/zakoni/55-4.pdf.hwaifs/tables/py/gmft/df.tables-7.xlsx
+++ b/data/pravno/zakoni/55-4.pdf.hwaifs/tables/py/gmft/df.tables-7.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,7 +430,17 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Od igara na sreću</t>
+          <t>br. stanovnika ( 2001.)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>državni proračun</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>po stanovniku</t>
         </is>
       </c>
     </row>
@@ -445,12 +455,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Velika Britanija</t>
+          <t>Francuska</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>374.400.000</t>
+          <t>59.551.227</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>266 000.000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
         </is>
       </c>
     </row>
@@ -465,12 +485,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Francuska</t>
+          <t>Poljska</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>151.000.000</t>
+          <t>38.633.912</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>150 000.000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.88</t>
         </is>
       </c>
     </row>
@@ -485,12 +515,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Poljska</t>
+          <t>Republika Češka</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>100.000.000</t>
+          <t>10.264.212</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.000.000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.43</t>
         </is>
       </c>
     </row>
@@ -505,12 +545,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Danska</t>
+          <t>Švicarska</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>70.000.000</t>
+          <t>7.283.274</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>55.100.000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.57</t>
         </is>
       </c>
     </row>
@@ -525,12 +575,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Švicarska</t>
+          <t>Finska</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>35.000.000</t>
+          <t>5.175.783</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>54.000.000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.43</t>
         </is>
       </c>
     </row>
@@ -550,7 +610,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28.600.000</t>
+          <t>8.150.835</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>52.200.000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.40</t>
         </is>
       </c>
     </row>
@@ -565,12 +635,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Republika Češka</t>
+          <t>Mađarska</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26.000.000</t>
+          <t>10.106.017</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.600.000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.53</t>
         </is>
       </c>
     </row>
@@ -590,7 +670,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.000.000</t>
+          <t>762.887</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>9.900.000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>12.98</t>
         </is>
       </c>
     </row>
@@ -610,7 +700,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.400.000</t>
+          <t>4.334.142</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7.900.000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.82</t>
         </is>
       </c>
     </row>
